--- a/template-new.xlsx
+++ b/template-new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/College/invoice-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D77E11-B632-D04B-9051-93E33BCD773B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB1B1AA8-4E8D-3D46-8997-9499E7A9FC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C17CFDA3-9E76-46FB-9DC1-21D687EE5D5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>TAX INVOICE</t>
   </si>
@@ -424,6 +424,9 @@
       </rPr>
       <t xml:space="preserve"> Rs.</t>
     </r>
+  </si>
+  <si>
+    <t>%PAYMENT_METHOD%</t>
   </si>
 </sst>
 </file>
@@ -752,6 +755,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -770,117 +848,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,15 +909,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2870381</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104671</xdr:rowOff>
+      <xdr:colOff>3530879</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>111648</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>134631</xdr:rowOff>
+      <xdr:colOff>160494</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>41462</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -935,8 +940,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3721700" y="244231"/>
-          <a:ext cx="2418959" cy="1879136"/>
+          <a:off x="4445000" y="90715"/>
+          <a:ext cx="2902857" cy="2079044"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1248,16 +1253,16 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="254" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="4.6640625" style="3" customWidth="1"/>
@@ -1266,210 +1271,161 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="38"/>
+      <c r="C3" s="12"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="38"/>
+      <c r="C4" s="12"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="41"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="41"/>
+      <c r="C7" s="15"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="41"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="46"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="48"/>
+      <c r="C10" s="17"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="38"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="49" t="s">
+      <c r="D13" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="E13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="51"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="49" t="s">
+      <c r="D14" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="E14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="43"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="49" t="s">
+      <c r="D15" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="E15" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="54"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="38"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1496,340 +1452,338 @@
     </row>
     <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="25" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="25" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="25" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="25" t="s">
         <v>36</v>
       </c>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="25" t="s">
         <v>42</v>
       </c>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="25" t="s">
         <v>48</v>
       </c>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="25" t="s">
         <v>54</v>
       </c>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="56" t="s">
+      <c r="F26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="25" t="s">
         <v>60</v>
       </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="25" t="s">
         <v>66</v>
       </c>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="56" t="s">
+      <c r="G28" s="25" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="G29" s="25" t="s">
         <v>78</v>
       </c>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="56" t="s">
+      <c r="E30" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F30" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="56" t="s">
+      <c r="D31" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="25" t="s">
         <v>90</v>
       </c>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="56" t="s">
+      <c r="F32" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="25" t="s">
         <v>96</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="56" t="s">
+      <c r="E33" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="25" t="s">
         <v>102</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="11" t="s">
         <v>103</v>
       </c>
@@ -1840,13 +1794,11 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="33" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="F35" s="33"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="10" t="s">
         <v>106</v>
       </c>
@@ -1854,90 +1806,92 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="57"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="18" t="s">
+      <c r="C37" s="32"/>
+      <c r="D37" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="20"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="32"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="27" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="54"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="22" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="23"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="48"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="23"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="48"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="22" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="23"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="48"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="51"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -1946,14 +1900,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="G6:G8"/>
@@ -1965,6 +1911,14 @@
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/template-new.xlsx
+++ b/template-new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/College/invoice-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB1B1AA8-4E8D-3D46-8997-9499E7A9FC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{896C6F80-D6C2-324E-94DB-ACC4B9AD68C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C17CFDA3-9E76-46FB-9DC1-21D687EE5D5D}"/>
   </bookViews>
@@ -734,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -794,98 +794,101 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,8 +917,8 @@
       <xdr:rowOff>90715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>160494</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>48846</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>41462</xdr:rowOff>
     </xdr:to>
@@ -1252,15 +1255,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2C1BD0-EF0B-4670-9DAF-4894F2C35E02}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="254" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="182" zoomScaleNormal="254" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="3" customWidth="1"/>
@@ -1271,14 +1274,14 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1302,16 +1305,16 @@
     </row>
     <row r="5" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="28"/>
       <c r="G5" s="14"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1320,18 +1323,18 @@
         <v>5</v>
       </c>
       <c r="C7" s="15"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1361,7 +1364,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="22" t="s">
         <v>107</v>
@@ -1372,11 +1375,11 @@
       <c r="D13" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="29"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
@@ -1390,35 +1393,35 @@
       <c r="D14" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="G16" s="13"/>
@@ -1795,10 +1798,10 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="D35" s="26"/>
-      <c r="E35" s="56" t="s">
+      <c r="E35" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="F35" s="56"/>
+      <c r="F35" s="51"/>
       <c r="G35" s="10" t="s">
         <v>106</v>
       </c>
@@ -1806,92 +1809,92 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="55" t="s">
+      <c r="C36" s="56"/>
+      <c r="D36" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="57"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="31" t="s">
+      <c r="C37" s="39"/>
+      <c r="D37" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="32"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="39"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="52" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="54"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="48"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="46" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="42"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="48"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="46" t="s">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="48"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="42"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="51"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -1900,6 +1903,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="G6:G8"/>
@@ -1914,11 +1922,6 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/template-new.xlsx
+++ b/template-new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/College/invoice-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{896C6F80-D6C2-324E-94DB-ACC4B9AD68C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C353A863-CB59-A44E-8E78-10A4A6D7A87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C17CFDA3-9E76-46FB-9DC1-21D687EE5D5D}"/>
   </bookViews>
@@ -503,7 +503,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -730,11 +730,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -749,9 +773,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -794,6 +815,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -824,15 +866,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -875,20 +911,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,16 +936,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3530879</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>90715</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60798</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>111651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>48846</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>41462</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>704780</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>237253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -943,8 +968,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4445000" y="90715"/>
-          <a:ext cx="2902857" cy="2079044"/>
+          <a:off x="4617446" y="251211"/>
+          <a:ext cx="2367554" cy="1695657"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1255,15 +1280,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2C1BD0-EF0B-4670-9DAF-4894F2C35E02}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="182" zoomScaleNormal="254" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="182" zoomScaleNormal="254" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="3" customWidth="1"/>
@@ -1274,14 +1299,14 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1290,8 +1315,8 @@
     </row>
     <row r="3" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="C3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="11"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1299,132 +1324,132 @@
       <c r="B4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="34"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="G6" s="29"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="G7" s="29"/>
+      <c r="C7" s="14"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="G8" s="29"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="G10" s="21"/>
+      <c r="C10" s="16"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="G12" s="13"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="G16" s="13"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1455,446 +1480,446 @@
     </row>
     <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="24" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="24" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="24" t="s">
         <v>36</v>
       </c>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="24" t="s">
         <v>42</v>
       </c>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="24" t="s">
         <v>54</v>
       </c>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="24" t="s">
         <v>60</v>
       </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="24" t="s">
         <v>66</v>
       </c>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="24" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="24" t="s">
         <v>78</v>
       </c>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="24" t="s">
         <v>84</v>
       </c>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="24" t="s">
         <v>90</v>
       </c>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="24" t="s">
         <v>96</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="24" t="s">
         <v>102</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="11" t="s">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>104</v>
       </c>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="51" t="s">
+      <c r="D35" s="25"/>
+      <c r="E35" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="F35" s="51"/>
-      <c r="G35" s="10" t="s">
+      <c r="F35" s="55"/>
+      <c r="G35" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="H35" s="5"/>
+      <c r="H35" s="58"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="49" t="s">
+      <c r="C36" s="30"/>
+      <c r="D36" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="50"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="37" t="s">
+      <c r="C37" s="28"/>
+      <c r="D37" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="28"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="46" t="s">
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="52"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="40" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="42"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="46"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="46"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="40" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="42"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="46"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -1903,11 +1928,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="G6:G8"/>
@@ -1922,6 +1942,11 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/template-new.xlsx
+++ b/template-new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/College/invoice-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C353A863-CB59-A44E-8E78-10A4A6D7A87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF44961-E8D2-6846-A69E-316AFC537C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C17CFDA3-9E76-46FB-9DC1-21D687EE5D5D}"/>
   </bookViews>
@@ -758,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -815,105 +815,111 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1280,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2C1BD0-EF0B-4670-9DAF-4894F2C35E02}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="182" zoomScaleNormal="254" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="182" zoomScaleNormal="254" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1299,14 +1305,14 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1330,16 +1336,16 @@
     </row>
     <row r="5" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="30"/>
       <c r="G5" s="13"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="G6" s="35"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1348,18 +1354,18 @@
         <v>5</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="G7" s="35"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
-      <c r="G8" s="35"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1400,11 +1406,11 @@
       <c r="D13" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
@@ -1418,35 +1424,35 @@
       <c r="D14" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="G16" s="12"/>
@@ -1823,103 +1829,103 @@
     <row r="35" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="D35" s="25"/>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="59" t="s">
+      <c r="F35" s="53"/>
+      <c r="G35" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="H35" s="58"/>
+      <c r="H35" s="27"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="53" t="s">
+      <c r="C36" s="58"/>
+      <c r="D36" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="54"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="52"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="27" t="s">
+      <c r="C37" s="41"/>
+      <c r="D37" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="28"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="50" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="52"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="50"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="44" t="s">
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="46"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="44"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="44" t="s">
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="46"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="44"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="47"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -1928,6 +1934,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="G6:G8"/>
@@ -1942,11 +1953,6 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/template-new.xlsx
+++ b/template-new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/College/invoice-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF44961-E8D2-6846-A69E-316AFC537C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB7216E7-EC66-104A-9F36-10A3FF1264B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C17CFDA3-9E76-46FB-9DC1-21D687EE5D5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>TAX INVOICE</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>%GRAND_TOTAL%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice Date: </t>
   </si>
   <si>
     <t xml:space="preserve">Customer Name: </t>
@@ -428,12 +425,21 @@
   <si>
     <t>%PAYMENT_METHOD%</t>
   </si>
+  <si>
+    <t>Job no:</t>
+  </si>
+  <si>
+    <t>Trail Date:</t>
+  </si>
+  <si>
+    <t>this is a computer generated bill and therefore does not necessitate an authorized signature</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +500,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -758,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -822,6 +835,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -834,33 +871,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -897,29 +910,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,7 +961,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>704780</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>237253</xdr:rowOff>
+      <xdr:rowOff>223297</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1286,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2C1BD0-EF0B-4670-9DAF-4894F2C35E02}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="182" zoomScaleNormal="254" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="254" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1305,14 +1315,14 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1321,31 +1331,33 @@
     </row>
     <row r="3" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="G3" s="12"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="11"/>
+      <c r="B4" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="38"/>
       <c r="G4" s="12"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="30"/>
+      <c r="B5" s="22" t="s">
+        <v>2</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="G6" s="31"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1354,32 +1366,32 @@
         <v>5</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="G7" s="31"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
-      <c r="B8" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="32"/>
+      <c r="B8" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="40"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
-      <c r="G8" s="31"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="16"/>
       <c r="G10" s="20"/>
@@ -1390,69 +1402,67 @@
       <c r="G11" s="12"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
+      <c r="B12" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
+      <c r="D13" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="22"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="D14" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="15"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="60" t="s">
+      <c r="B15" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="G16" s="12"/>
@@ -1480,7 +1490,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H18" s="5"/>
     </row>
@@ -1830,7 +1840,7 @@
       <c r="A35" s="4"/>
       <c r="D35" s="25"/>
       <c r="E35" s="53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F35" s="53"/>
       <c r="G35" s="28" t="s">
@@ -1840,12 +1850,12 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="58"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E36" s="51"/>
       <c r="F36" s="51"/>
@@ -1854,24 +1864,26 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
-      <c r="B37" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="41"/>
+      <c r="B37" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="32"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
+      <c r="B38" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="56"/>
       <c r="D38" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E38" s="49"/>
       <c r="F38" s="49"/>
@@ -1880,10 +1892,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" s="43"/>
       <c r="F39" s="43"/>
@@ -1892,8 +1904,8 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="42"/>
       <c r="E40" s="43"/>
       <c r="F40" s="43"/>
@@ -1902,10 +1914,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E41" s="43"/>
       <c r="F41" s="43"/>
@@ -1914,8 +1926,8 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="38"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="45"/>
       <c r="E42" s="46"/>
       <c r="F42" s="46"/>
@@ -1924,8 +1936,8 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -1933,14 +1945,9 @@
       <c r="H43" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
+  <mergeCells count="17">
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B38:C42"/>
@@ -1950,9 +1957,12 @@
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/template-new.xlsx
+++ b/template-new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/College/invoice-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB7216E7-EC66-104A-9F36-10A3FF1264B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFF2B05E-31F7-8249-9B76-A9B134460D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C17CFDA3-9E76-46FB-9DC1-21D687EE5D5D}"/>
   </bookViews>
@@ -380,9 +380,6 @@
     <t>Invoice Number:</t>
   </si>
   <si>
-    <t>14/60, Sindur Eternity, Red Cross Rd, Egmore, Chennai, Tamil Nadu 600008</t>
-  </si>
-  <si>
     <t>Terms &amp; Conditions</t>
   </si>
   <si>
@@ -433,6 +430,9 @@
   </si>
   <si>
     <t>this is a computer generated bill and therefore does not necessitate an authorized signature</t>
+  </si>
+  <si>
+    <t>Rajah Annamalai Buildings Annexe 3rd Floor 18/3, Rukmani Lakshmipathy Road, Marshalls Rd, Egmore, Chennai 600008</t>
   </si>
 </sst>
 </file>
@@ -813,9 +813,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -827,9 +824,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -853,9 +847,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -911,7 +902,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -930,6 +921,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1297,14 +1297,14 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="254" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="3" customWidth="1"/>
@@ -1315,14 +1315,14 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1340,16 +1340,16 @@
     </row>
     <row r="4" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="35"/>
       <c r="G4" s="12"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="13"/>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="G6" s="39"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1366,24 +1366,24 @@
         <v>5</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="G7" s="39"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
-      <c r="B8" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="40"/>
+      <c r="B8" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="37"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
-      <c r="G8" s="39"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="5"/>
@@ -1404,65 +1404,67 @@
     </row>
     <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="58" t="s">
         <v>107</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="D12" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="60"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="58" t="s">
         <v>110</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="15"/>
+      <c r="D14" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="G16" s="12"/>
@@ -1490,344 +1492,344 @@
         <v>12</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="23" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="23" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="23" t="s">
         <v>42</v>
       </c>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="23" t="s">
         <v>48</v>
       </c>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="23" t="s">
         <v>54</v>
       </c>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="23" t="s">
         <v>60</v>
       </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="23" t="s">
         <v>66</v>
       </c>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="23" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="23" t="s">
         <v>78</v>
       </c>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="23" t="s">
         <v>84</v>
       </c>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="23" t="s">
         <v>90</v>
       </c>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="23" t="s">
         <v>96</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="23" t="s">
         <v>102</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="10" t="s">
         <v>103</v>
       </c>
@@ -1838,106 +1840,106 @@
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" s="53"/>
-      <c r="G35" s="28" t="s">
+      <c r="D35" s="24"/>
+      <c r="E35" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="50"/>
+      <c r="G35" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="H35" s="27"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="52"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="32"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="30"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
-      <c r="B38" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
+      <c r="B38" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="53"/>
+      <c r="D38" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="41"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="44"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="47"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="44"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -1957,7 +1959,7 @@
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B36:C36"/>

--- a/template-new.xlsx
+++ b/template-new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/College/invoice-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFF2B05E-31F7-8249-9B76-A9B134460D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A30BAB-45CC-6C4B-BC2F-4CF2D8890124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C17CFDA3-9E76-46FB-9DC1-21D687EE5D5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>TAX INVOICE</t>
   </si>
@@ -404,8 +404,29 @@
     <t>Total Inc. Tax</t>
   </si>
   <si>
+    <t>%PAYMENT_METHOD%</t>
+  </si>
+  <si>
+    <t>Job no:</t>
+  </si>
+  <si>
+    <t>Trail Date:</t>
+  </si>
+  <si>
+    <t>this is a computer generated bill and therefore does not necessitate an authorized signature</t>
+  </si>
+  <si>
+    <t>Rajah Annamalai Buildings Annexe 3rd Floor 18/3, Rukmani Lakshmipathy Road, Marshalls Rd, Egmore, Chennai 600008</t>
+  </si>
+  <si>
+    <t>Advance Paid: Rs.</t>
+  </si>
+  <si>
+    <t>%ADVANCE_PAID%</t>
+  </si>
+  <si>
     <r>
-      <t>Grand Total:</t>
+      <t>Total due:</t>
     </r>
     <r>
       <rPr>
@@ -418,21 +439,6 @@
       </rPr>
       <t xml:space="preserve"> Rs.</t>
     </r>
-  </si>
-  <si>
-    <t>%PAYMENT_METHOD%</t>
-  </si>
-  <si>
-    <t>Job no:</t>
-  </si>
-  <si>
-    <t>Trail Date:</t>
-  </si>
-  <si>
-    <t>this is a computer generated bill and therefore does not necessitate an authorized signature</t>
-  </si>
-  <si>
-    <t>Rajah Annamalai Buildings Annexe 3rd Floor 18/3, Rukmani Lakshmipathy Road, Marshalls Rd, Egmore, Chennai 600008</t>
   </si>
 </sst>
 </file>
@@ -771,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -832,104 +838,107 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1294,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2C1BD0-EF0B-4670-9DAF-4894F2C35E02}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="254" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C16"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1315,14 +1324,14 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1340,10 +1349,10 @@
     </row>
     <row r="4" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="31"/>
       <c r="G4" s="12"/>
       <c r="H4" s="5"/>
     </row>
@@ -1357,7 +1366,7 @@
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="G6" s="36"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1366,18 +1375,18 @@
         <v>5</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="G7" s="36"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
-      <c r="B8" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="37"/>
+      <c r="B8" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="33"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
-      <c r="G8" s="36"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1404,51 +1413,51 @@
     </row>
     <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="28" t="s">
         <v>107</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="58" t="s">
-        <v>124</v>
+      <c r="D12" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="E12" s="21"/>
-      <c r="F12" s="60"/>
+      <c r="F12" s="29"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="28" t="s">
         <v>109</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="58" t="s">
-        <v>125</v>
+      <c r="D13" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="28" t="s">
         <v>110</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1456,7 +1465,7 @@
       <c r="B15" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="60" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="5"/>
@@ -1464,7 +1473,7 @@
     <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="59"/>
-      <c r="C16" s="33"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="G16" s="12"/>
@@ -1838,133 +1847,146 @@
       </c>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="26" t="s">
+      <c r="E35" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="54"/>
+      <c r="G36" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="4"/>
-      <c r="B36" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="5"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
-      <c r="B37" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="30"/>
+      <c r="B37" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="58"/>
+      <c r="D37" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
-      <c r="B38" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="47"/>
+      <c r="B38" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="41"/>
+      <c r="B39" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="41"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="41"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="6"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="8"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B38:C42"/>
+    <mergeCell ref="B39:C43"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D40:G41"/>
+    <mergeCell ref="D42:G43"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D39:G40"/>
-    <mergeCell ref="D41:G42"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/template-new.xlsx
+++ b/template-new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/College/invoice-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A30BAB-45CC-6C4B-BC2F-4CF2D8890124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F3F28C-E98A-DE44-88D6-019039636140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C17CFDA3-9E76-46FB-9DC1-21D687EE5D5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>TAX INVOICE</t>
   </si>
@@ -53,9 +53,6 @@
     <t xml:space="preserve">%CUSTOMER_ADDRESS%		</t>
   </si>
   <si>
-    <t>Statesman Bespoke</t>
-  </si>
-  <si>
     <t>%CUSTOMER_PHONE%</t>
   </si>
   <si>
@@ -383,15 +380,6 @@
     <t>Terms &amp; Conditions</t>
   </si>
   <si>
-    <t>Payment due in full at purchase</t>
-  </si>
-  <si>
-    <t>Custom items: Non-returnable /exchangeable</t>
-  </si>
-  <si>
-    <t>Cancellations: Vary for custom vs. ready-to-wear items</t>
-  </si>
-  <si>
     <t>GSTIN:</t>
   </si>
   <si>
@@ -411,9 +399,6 @@
   </si>
   <si>
     <t>Trail Date:</t>
-  </si>
-  <si>
-    <t>this is a computer generated bill and therefore does not necessitate an authorized signature</t>
   </si>
   <si>
     <t>Rajah Annamalai Buildings Annexe 3rd Floor 18/3, Rukmani Lakshmipathy Road, Marshalls Rd, Egmore, Chennai 600008</t>
@@ -439,6 +424,33 @@
       </rPr>
       <t xml:space="preserve"> Rs.</t>
     </r>
+  </si>
+  <si>
+    <t>Statesman Bespoke Suits</t>
+  </si>
+  <si>
+    <t>・Payment due in full at purchase</t>
+  </si>
+  <si>
+    <t>・Custom items: Non-returnable /exchangeable</t>
+  </si>
+  <si>
+    <t>・Cancellations: Vary for custom vs. ready-to-wear items</t>
+  </si>
+  <si>
+    <t>Computer Generated Bill. Authotized Signature Not Required.</t>
+  </si>
+  <si>
+    <t>Discount: Rs.</t>
+  </si>
+  <si>
+    <t>%DISCOUNT%</t>
+  </si>
+  <si>
+    <t>%JOB_NO%</t>
+  </si>
+  <si>
+    <t>%TRAIL_DATE%</t>
   </si>
 </sst>
 </file>
@@ -731,17 +743,6 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="2" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
@@ -773,11 +774,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -792,9 +804,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -831,8 +840,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -841,8 +850,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -874,42 +904,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -922,23 +919,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1303,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2C1BD0-EF0B-4670-9DAF-4894F2C35E02}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="254" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1324,14 +1342,14 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1341,142 +1359,147 @@
     <row r="3" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="G3" s="12"/>
+        <v>112</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="37"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="G6" s="32"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="G7" s="32"/>
+      <c r="B7" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
-      <c r="B8" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="G8" s="32"/>
+      <c r="B8" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="18"/>
+      <c r="B9" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="17"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="G10" s="20"/>
+      <c r="B10" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="29"/>
+      <c r="D12" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="B13" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
+      <c r="B14" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="60" t="s">
+      <c r="B15" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="G16" s="12"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1486,507 +1509,522 @@
     <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="G18" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="D19" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>17</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>18</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="D20" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>24</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="D21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>29</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>30</v>
       </c>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="F22" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>36</v>
       </c>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="E23" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="G23" s="22" t="s">
         <v>41</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>42</v>
       </c>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="E24" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="F24" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="G24" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>48</v>
       </c>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="G25" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>54</v>
       </c>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="E26" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="F26" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="G26" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="G27" s="22" t="s">
         <v>65</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>66</v>
       </c>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="E28" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="F28" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="G28" s="22" t="s">
         <v>71</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>72</v>
       </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="E29" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="F29" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="G29" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>78</v>
       </c>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="E30" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="F30" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="G30" s="22" t="s">
         <v>83</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>84</v>
       </c>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="E31" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="F31" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="G31" s="22" t="s">
         <v>89</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>90</v>
       </c>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="D32" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="E32" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="F32" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="G32" s="22" t="s">
         <v>95</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>96</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="D33" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="E33" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="F33" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="G33" s="22" t="s">
         <v>101</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>102</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="10" t="s">
+      <c r="D34" s="23"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="61" t="s">
         <v>103</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="61" t="s">
-        <v>128</v>
+      <c r="D35" s="23"/>
+      <c r="E35" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="63"/>
+      <c r="G35" s="62" t="s">
+        <v>131</v>
       </c>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" s="54"/>
-      <c r="G36" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D36" s="23"/>
+      <c r="E36" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
-      <c r="B37" s="57" t="s">
+      <c r="D37" s="23"/>
+      <c r="E37" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="49"/>
+      <c r="G37" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="5"/>
+      <c r="H37" s="24"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
-      <c r="B38" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
+      <c r="B38" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="48"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
-      <c r="B39" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="51"/>
+      <c r="B39" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="31"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
+      <c r="B40" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="53"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="56"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="48"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="56"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="6"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="8"/>
+    <row r="44" spans="1:8" ht="7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
+  <mergeCells count="21">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B39:C43"/>
+    <mergeCell ref="B40:C44"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D41:G42"/>
+    <mergeCell ref="D43:G44"/>
+    <mergeCell ref="D40:G40"/>
     <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D40:G41"/>
-    <mergeCell ref="D42:G43"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E14:G14"/>
     <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
